--- a/docs/ウォーターフォール開発における役割分担シート.xlsx
+++ b/docs/ウォーターフォール開発における役割分担シート.xlsx
@@ -6396,16 +6396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="24"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="31"/>
   </si>
@@ -6714,6 +6704,10 @@
     <rPh sb="8" eb="10">
       <t>ジッシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォーターフォール開発における役割分担シート©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15122,7 +15116,7 @@
   </sheetPr>
   <dimension ref="A1:AI513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
@@ -15962,7 +15956,7 @@
       <c r="P23" s="564"/>
       <c r="Q23" s="564"/>
       <c r="R23" s="570" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S23" s="564"/>
       <c r="T23" s="564"/>
@@ -16038,7 +16032,7 @@
       <c r="P25" s="564"/>
       <c r="Q25" s="564"/>
       <c r="R25" s="571" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="S25" s="564"/>
       <c r="T25" s="564"/>
@@ -16298,9 +16292,7 @@
       <c r="O32" s="564"/>
       <c r="P32" s="564"/>
       <c r="Q32" s="564"/>
-      <c r="R32" s="575" t="s">
-        <v>964</v>
-      </c>
+      <c r="R32" s="575"/>
       <c r="S32" s="564"/>
       <c r="T32" s="564"/>
       <c r="U32" s="564"/>
@@ -16507,12 +16499,12 @@
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="564"/>
       <c r="B38" s="564" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C38" s="564"/>
       <c r="D38" s="564"/>
       <c r="E38" s="583" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F38" s="564"/>
       <c r="G38" s="564"/>
@@ -16526,7 +16518,7 @@
       <c r="O38" s="580"/>
       <c r="P38" s="580"/>
       <c r="S38" s="584" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="U38" s="564"/>
       <c r="V38" s="564"/>
@@ -16546,7 +16538,9 @@
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1">
       <c r="A39" s="564"/>
-      <c r="B39" s="564"/>
+      <c r="B39" s="564" t="s">
+        <v>987</v>
+      </c>
       <c r="C39" s="564"/>
       <c r="D39" s="564"/>
       <c r="E39" s="564"/>
@@ -17074,10 +17068,10 @@
   </sheetPr>
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I54" sqref="I54"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="12" outlineLevelRow="1"/>
@@ -17278,7 +17272,7 @@
         <v>886</v>
       </c>
       <c r="AB5" s="499" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:28" outlineLevel="1">
@@ -21884,7 +21878,7 @@
         <v>349</v>
       </c>
       <c r="AB104" s="509" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
@@ -21932,7 +21926,7 @@
         <v>349</v>
       </c>
       <c r="AB105" s="506" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="12" customHeight="1">
@@ -22028,7 +22022,7 @@
         <v>349</v>
       </c>
       <c r="AB107" s="500" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="108" spans="1:28" outlineLevel="1">
@@ -22076,7 +22070,7 @@
         <v>678</v>
       </c>
       <c r="AB108" s="505" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
@@ -22124,7 +22118,7 @@
         <v>678</v>
       </c>
       <c r="AB109" s="506" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="12" customHeight="1">
@@ -25078,7 +25072,7 @@
         <v>349</v>
       </c>
       <c r="AB173" s="513" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -26860,7 +26854,7 @@
         <v>258</v>
       </c>
       <c r="AB211" s="519" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="212" spans="1:28" ht="12.75" thickBot="1">
@@ -26912,7 +26906,7 @@
         <v>678</v>
       </c>
       <c r="AB212" s="519" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="213" spans="1:28" ht="12.75" thickBot="1">
@@ -29651,7 +29645,7 @@
         <v>349</v>
       </c>
       <c r="AB271" s="500" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="272" spans="1:28" outlineLevel="1">
@@ -29699,7 +29693,7 @@
         <v>349</v>
       </c>
       <c r="AB272" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="273" spans="1:28" outlineLevel="1">
@@ -29747,7 +29741,7 @@
         <v>349</v>
       </c>
       <c r="AB273" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="274" spans="1:28" outlineLevel="1">
@@ -29795,7 +29789,7 @@
         <v>349</v>
       </c>
       <c r="AB274" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="275" spans="1:28" outlineLevel="1">
@@ -29843,7 +29837,7 @@
         <v>349</v>
       </c>
       <c r="AB275" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="276" spans="1:28" outlineLevel="1">
@@ -29891,7 +29885,7 @@
         <v>258</v>
       </c>
       <c r="AB276" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="277" spans="1:28" outlineLevel="1">
@@ -29939,7 +29933,7 @@
         <v>258</v>
       </c>
       <c r="AB277" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="278" spans="1:28" outlineLevel="1">
@@ -29987,7 +29981,7 @@
         <v>349</v>
       </c>
       <c r="AB278" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="279" spans="1:28" outlineLevel="1">
@@ -30035,7 +30029,7 @@
         <v>349</v>
       </c>
       <c r="AB279" s="505" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="280" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
@@ -30083,7 +30077,7 @@
         <v>349</v>
       </c>
       <c r="AB280" s="506" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -31251,7 +31245,7 @@
         <v>349</v>
       </c>
       <c r="AB305" s="292" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="306" spans="1:28" outlineLevel="1">
@@ -31349,7 +31343,7 @@
         <v>258</v>
       </c>
       <c r="AB307" s="188" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="308" spans="1:28" outlineLevel="1">
@@ -31399,7 +31393,7 @@
         <v>258</v>
       </c>
       <c r="AB308" s="188" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="309" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
@@ -33629,7 +33623,7 @@
         <v>349</v>
       </c>
       <c r="AB356" s="511" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="357" spans="1:28" outlineLevel="1">
@@ -33677,7 +33671,7 @@
         <v>349</v>
       </c>
       <c r="AB357" s="517" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="358" spans="1:28" outlineLevel="1">
@@ -33725,7 +33719,7 @@
         <v>258</v>
       </c>
       <c r="AB358" s="510" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="359" spans="1:28" outlineLevel="1">
@@ -39245,7 +39239,7 @@
         <v>349</v>
       </c>
       <c r="AB476" s="522" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="477" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
@@ -43379,7 +43373,7 @@
         <v>786</v>
       </c>
       <c r="AB564" s="539" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="565" spans="1:28">
@@ -50225,7 +50219,7 @@
         <v>349</v>
       </c>
       <c r="AB710" s="188" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="711" spans="1:28" outlineLevel="1">
@@ -60877,9 +60871,7 @@
   </sheetPr>
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>

--- a/docs/ウォーターフォール開発における役割分担シート.xlsx
+++ b/docs/ウォーターフォール開発における役割分担シート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DB4A99-E5B0-4416-A76D-554E11EB5D94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71531B4D-A8A7-432F-8A3C-E6BD0A869E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="348" windowWidth="18648" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1620" windowWidth="21555" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7723" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="984">
   <si>
     <t>環境構築</t>
     <rPh sb="0" eb="2">
@@ -6395,17 +6395,6 @@
       <t>シンサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>第1.0版</t>
@@ -6705,10 +6694,6 @@
     <rPh sb="8" eb="10">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウォーターフォール開発における役割分担シート©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6719,7 +6704,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6920,12 +6905,6 @@
       <sz val="9"/>
       <name val="メイリオ"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -8898,26 +8877,44 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8926,1486 +8923,1468 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="119" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="119" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="121" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="120" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="121" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="123" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="125" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="123" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="124" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="125" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="126" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="127" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="122" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -10475,7 +10454,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -10489,11 +10468,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
@@ -10506,20 +10485,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12265,7 +12244,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13483,57 +13462,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>122711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6657975"/>
-          <a:ext cx="838200" cy="294161"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15262,9 +15190,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="567"/>
+    <col min="1" max="16384" width="3.625" style="567"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" customHeight="1">
@@ -15304,7 +15232,7 @@
       <c r="AH1" s="564"/>
       <c r="AI1" s="564"/>
     </row>
-    <row r="2" spans="1:35" ht="13.2" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1">
       <c r="A2" s="568"/>
       <c r="B2" s="564"/>
       <c r="C2" s="564"/>
@@ -16100,7 +16028,7 @@
       <c r="P23" s="564"/>
       <c r="Q23" s="564"/>
       <c r="R23" s="570" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="S23" s="564"/>
       <c r="T23" s="564"/>
@@ -16176,7 +16104,7 @@
       <c r="P25" s="564"/>
       <c r="Q25" s="564"/>
       <c r="R25" s="571" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="S25" s="564"/>
       <c r="T25" s="564"/>
@@ -16418,7 +16346,7 @@
       <c r="AH31" s="564"/>
       <c r="AI31" s="564"/>
     </row>
-    <row r="32" spans="1:35" ht="28.8">
+    <row r="32" spans="1:35" ht="28.5">
       <c r="A32" s="564"/>
       <c r="B32" s="564"/>
       <c r="C32" s="564"/>
@@ -16455,7 +16383,7 @@
       <c r="AH32" s="564"/>
       <c r="AI32" s="564"/>
     </row>
-    <row r="33" spans="1:35" ht="26.4">
+    <row r="33" spans="1:35" ht="24.75">
       <c r="A33" s="564"/>
       <c r="B33" s="564"/>
       <c r="C33" s="564"/>
@@ -16605,14 +16533,10 @@
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1">
       <c r="A37" s="564"/>
-      <c r="B37" s="564" t="s">
-        <v>964</v>
-      </c>
+      <c r="B37" s="564"/>
       <c r="C37" s="564"/>
       <c r="D37" s="564"/>
-      <c r="F37" s="581" t="s">
-        <v>965</v>
-      </c>
+      <c r="F37" s="581"/>
       <c r="G37" s="564"/>
       <c r="H37" s="564"/>
       <c r="I37" s="564"/>
@@ -16623,9 +16547,7 @@
       <c r="N37" s="564"/>
       <c r="O37" s="578"/>
       <c r="P37" s="578"/>
-      <c r="U37" s="582" t="s">
-        <v>966</v>
-      </c>
+      <c r="U37" s="582"/>
       <c r="V37" s="564"/>
       <c r="W37" s="564"/>
       <c r="X37" s="564"/>
@@ -16643,9 +16565,7 @@
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="564"/>
-      <c r="B38" s="564" t="s">
-        <v>987</v>
-      </c>
+      <c r="B38" s="564"/>
       <c r="C38" s="564"/>
       <c r="D38" s="564"/>
       <c r="E38" s="564"/>
@@ -17156,13 +17076,10 @@
     <row r="512" ht="13.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="F37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17179,24 +17096,24 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="11.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="12" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="4.21875" style="189"/>
-    <col min="3" max="3" width="4.21875" style="189" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" style="189"/>
-    <col min="5" max="11" width="4.21875" style="1"/>
-    <col min="12" max="12" width="3.33203125" style="51" customWidth="1"/>
-    <col min="13" max="15" width="3.33203125" style="30" customWidth="1"/>
-    <col min="16" max="21" width="3.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="391" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="331" customWidth="1"/>
-    <col min="24" max="26" width="10.6640625" style="17" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" style="562" customWidth="1"/>
-    <col min="28" max="28" width="58.44140625" style="563" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="4.21875" style="1"/>
+    <col min="1" max="2" width="4.25" style="189"/>
+    <col min="3" max="3" width="4.25" style="189" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="189"/>
+    <col min="5" max="11" width="4.25" style="1"/>
+    <col min="12" max="12" width="3.375" style="51" customWidth="1"/>
+    <col min="13" max="15" width="3.375" style="30" customWidth="1"/>
+    <col min="16" max="21" width="3.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="391" customWidth="1"/>
+    <col min="23" max="23" width="10.625" style="331" customWidth="1"/>
+    <col min="24" max="26" width="10.625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="562" customWidth="1"/>
+    <col min="28" max="28" width="58.5" style="563" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="4.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12" thickBot="1">
+    <row r="1" spans="1:28" ht="12.75" thickBot="1">
       <c r="V1" s="391" t="s">
         <v>666</v>
       </c>
@@ -17288,7 +17205,7 @@
       <c r="AA3" s="588"/>
       <c r="AB3" s="585"/>
     </row>
-    <row r="4" spans="1:28" ht="25.8" thickBot="1">
+    <row r="4" spans="1:28" ht="24.75" thickBot="1">
       <c r="A4" s="596"/>
       <c r="B4" s="597"/>
       <c r="C4" s="597"/>
@@ -17377,7 +17294,7 @@
         <v>886</v>
       </c>
       <c r="AB5" s="499" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6" spans="1:28" outlineLevel="1">
@@ -17522,7 +17439,7 @@
       </c>
       <c r="AB8" s="501"/>
     </row>
-    <row r="9" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="9" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -17570,7 +17487,7 @@
       </c>
       <c r="AB9" s="502"/>
     </row>
-    <row r="10" spans="1:28" ht="12" thickBot="1">
+    <row r="10" spans="1:28" ht="12.75" thickBot="1">
       <c r="A10" s="190"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -17850,7 +17767,7 @@
       </c>
       <c r="AB15" s="505"/>
     </row>
-    <row r="16" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="16" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -18268,7 +18185,7 @@
       </c>
       <c r="AB24" s="505"/>
     </row>
-    <row r="25" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="25" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -18592,7 +18509,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="32" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -18918,7 +18835,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="39" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -19338,7 +19255,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="48" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -19664,7 +19581,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="55" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -19942,7 +19859,7 @@
       </c>
       <c r="AB60" s="505"/>
     </row>
-    <row r="61" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="61" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -20268,7 +20185,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="68" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -20548,7 +20465,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="74" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -20876,7 +20793,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="81" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -21156,7 +21073,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="87" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -21340,7 +21257,7 @@
       </c>
       <c r="AB90" s="505"/>
     </row>
-    <row r="91" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="91" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -21478,7 +21395,7 @@
       </c>
       <c r="AB93" s="508"/>
     </row>
-    <row r="94" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="94" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -21754,7 +21671,7 @@
       </c>
       <c r="AB99" s="509"/>
     </row>
-    <row r="100" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="100" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -21983,10 +21900,10 @@
         <v>349</v>
       </c>
       <c r="AB104" s="509" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A105" s="190"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -22031,7 +21948,7 @@
         <v>349</v>
       </c>
       <c r="AB105" s="506" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="12" customHeight="1">
@@ -22127,7 +22044,7 @@
         <v>349</v>
       </c>
       <c r="AB107" s="500" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="108" spans="1:28" outlineLevel="1">
@@ -22175,10 +22092,10 @@
         <v>678</v>
       </c>
       <c r="AB108" s="505" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
@@ -22223,7 +22140,7 @@
         <v>678</v>
       </c>
       <c r="AB109" s="506" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="12" customHeight="1">
@@ -23196,7 +23113,7 @@
       </c>
       <c r="AB130" s="508"/>
     </row>
-    <row r="131" spans="1:28" s="331" customFormat="1" ht="22.8" outlineLevel="1">
+    <row r="131" spans="1:28" s="331" customFormat="1" outlineLevel="1">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -23612,7 +23529,7 @@
       </c>
       <c r="AB139" s="505"/>
     </row>
-    <row r="140" spans="1:28" s="331" customFormat="1" ht="12" outlineLevel="1" thickBot="1">
+    <row r="140" spans="1:28" s="331" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -25090,7 +25007,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="22.8" outlineLevel="1">
+    <row r="172" spans="1:28" outlineLevel="1">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -25135,7 +25052,7 @@
         <v>349</v>
       </c>
       <c r="AB172" s="513" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -25474,7 +25391,7 @@
       </c>
       <c r="AB179" s="513"/>
     </row>
-    <row r="180" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="180" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -26824,7 +26741,7 @@
       </c>
       <c r="AB208" s="510"/>
     </row>
-    <row r="209" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="209" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -26870,7 +26787,7 @@
       </c>
       <c r="AB209" s="518"/>
     </row>
-    <row r="210" spans="1:28" ht="12" thickBot="1">
+    <row r="210" spans="1:28" ht="12.75" thickBot="1">
       <c r="A210" s="3" t="s">
         <v>914</v>
       </c>
@@ -26917,10 +26834,10 @@
         <v>258</v>
       </c>
       <c r="AB210" s="519" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="211" spans="1:28" ht="12" thickBot="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" ht="12.75" thickBot="1">
       <c r="A211" s="3" t="s">
         <v>37</v>
       </c>
@@ -26969,10 +26886,10 @@
         <v>678</v>
       </c>
       <c r="AB211" s="519" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="212" spans="1:28" ht="12" thickBot="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" ht="12.75" thickBot="1">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -27718,7 +27635,7 @@
       </c>
       <c r="AB227" s="505"/>
     </row>
-    <row r="228" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="228" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -28328,7 +28245,7 @@
       </c>
       <c r="AB240" s="525"/>
     </row>
-    <row r="241" spans="1:28" ht="13.8" outlineLevel="1" thickBot="1">
+    <row r="241" spans="1:28" ht="14.25" outlineLevel="1" thickBot="1">
       <c r="A241" s="191"/>
       <c r="B241" s="68"/>
       <c r="C241" s="68"/>
@@ -28652,7 +28569,7 @@
       </c>
       <c r="AB247" s="510"/>
     </row>
-    <row r="248" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="248" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A248" s="193"/>
       <c r="B248" s="194"/>
       <c r="C248" s="194"/>
@@ -29065,7 +28982,7 @@
       </c>
       <c r="AB256" s="510"/>
     </row>
-    <row r="257" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="257" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A257" s="195"/>
       <c r="B257" s="196"/>
       <c r="C257" s="196"/>
@@ -29571,7 +29488,7 @@
       </c>
       <c r="AB267" s="505"/>
     </row>
-    <row r="268" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="268" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -29708,7 +29625,7 @@
         <v>349</v>
       </c>
       <c r="AB270" s="500" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="271" spans="1:28" outlineLevel="1">
@@ -29756,7 +29673,7 @@
         <v>349</v>
       </c>
       <c r="AB271" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="272" spans="1:28" outlineLevel="1">
@@ -29804,7 +29721,7 @@
         <v>349</v>
       </c>
       <c r="AB272" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="273" spans="1:28" outlineLevel="1">
@@ -29852,7 +29769,7 @@
         <v>349</v>
       </c>
       <c r="AB273" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="274" spans="1:28" outlineLevel="1">
@@ -29900,7 +29817,7 @@
         <v>349</v>
       </c>
       <c r="AB274" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="275" spans="1:28" outlineLevel="1">
@@ -29948,7 +29865,7 @@
         <v>258</v>
       </c>
       <c r="AB275" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="276" spans="1:28" outlineLevel="1">
@@ -29996,7 +29913,7 @@
         <v>258</v>
       </c>
       <c r="AB276" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="277" spans="1:28" outlineLevel="1">
@@ -30044,7 +29961,7 @@
         <v>349</v>
       </c>
       <c r="AB277" s="505" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="278" spans="1:28" outlineLevel="1">
@@ -30092,10 +30009,10 @@
         <v>349</v>
       </c>
       <c r="AB278" s="505" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="279" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -30140,7 +30057,7 @@
         <v>349</v>
       </c>
       <c r="AB279" s="506" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -30981,7 +30898,7 @@
       </c>
       <c r="AB297" s="510"/>
     </row>
-    <row r="298" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="298" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -31215,7 +31132,7 @@
       </c>
       <c r="AB302" s="500"/>
     </row>
-    <row r="303" spans="1:28" s="331" customFormat="1" ht="12" outlineLevel="1" thickBot="1">
+    <row r="303" spans="1:28" s="331" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A303" s="5"/>
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
@@ -31308,7 +31225,7 @@
         <v>349</v>
       </c>
       <c r="AB304" s="292" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="305" spans="1:28" outlineLevel="1">
@@ -31359,7 +31276,7 @@
       </c>
       <c r="AB305" s="188"/>
     </row>
-    <row r="306" spans="1:28" ht="22.8" outlineLevel="1">
+    <row r="306" spans="1:28" ht="24" outlineLevel="1">
       <c r="A306" s="5"/>
       <c r="B306" s="43"/>
       <c r="C306" s="43"/>
@@ -31406,7 +31323,7 @@
         <v>258</v>
       </c>
       <c r="AB306" s="188" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="307" spans="1:28" outlineLevel="1">
@@ -31456,10 +31373,10 @@
         <v>258</v>
       </c>
       <c r="AB307" s="188" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="308" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="308" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A308" s="5"/>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -31923,7 +31840,7 @@
       </c>
       <c r="AB317" s="509"/>
     </row>
-    <row r="318" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="318" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -32763,7 +32680,7 @@
       </c>
       <c r="AB335" s="500"/>
     </row>
-    <row r="336" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="336" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -33131,7 +33048,7 @@
       </c>
       <c r="AB343" s="505"/>
     </row>
-    <row r="344" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="344" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A344" s="5"/>
       <c r="B344" s="43"/>
       <c r="C344" s="43"/>
@@ -33499,7 +33416,7 @@
       </c>
       <c r="AB351" s="531"/>
     </row>
-    <row r="352" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="352" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A352" s="5"/>
       <c r="B352" s="43"/>
       <c r="C352" s="43"/>
@@ -33545,7 +33462,7 @@
       </c>
       <c r="AB352" s="532"/>
     </row>
-    <row r="353" spans="1:28" ht="12" thickBot="1">
+    <row r="353" spans="1:28" ht="12.75" thickBot="1">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -33593,7 +33510,7 @@
       </c>
       <c r="AB353" s="519"/>
     </row>
-    <row r="354" spans="1:28" ht="12" thickBot="1">
+    <row r="354" spans="1:28" ht="12.75" thickBot="1">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -33686,7 +33603,7 @@
         <v>349</v>
       </c>
       <c r="AB355" s="511" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="356" spans="1:28" outlineLevel="1">
@@ -33734,7 +33651,7 @@
         <v>349</v>
       </c>
       <c r="AB356" s="517" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="357" spans="1:28" outlineLevel="1">
@@ -33782,7 +33699,7 @@
         <v>258</v>
       </c>
       <c r="AB357" s="510" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="358" spans="1:28" outlineLevel="1">
@@ -34155,7 +34072,7 @@
       </c>
       <c r="AB365" s="510"/>
     </row>
-    <row r="366" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="366" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -34201,7 +34118,7 @@
       </c>
       <c r="AB366" s="523"/>
     </row>
-    <row r="367" spans="1:28" ht="12" thickBot="1">
+    <row r="367" spans="1:28" ht="12.75" thickBot="1">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -34249,7 +34166,7 @@
       </c>
       <c r="AB367" s="533"/>
     </row>
-    <row r="368" spans="1:28" ht="12" thickBot="1">
+    <row r="368" spans="1:28" ht="12.75" thickBot="1">
       <c r="A368" s="5"/>
       <c r="B368" s="43"/>
       <c r="C368" s="43"/>
@@ -34297,7 +34214,7 @@
       </c>
       <c r="AB368" s="534"/>
     </row>
-    <row r="369" spans="1:28" ht="12" thickBot="1">
+    <row r="369" spans="1:28" ht="12.75" thickBot="1">
       <c r="A369" s="5"/>
       <c r="B369" s="43"/>
       <c r="C369" s="43"/>
@@ -34529,7 +34446,7 @@
       </c>
       <c r="AB373" s="510"/>
     </row>
-    <row r="374" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="374" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A374" s="5"/>
       <c r="B374" s="43"/>
       <c r="C374" s="43"/>
@@ -34759,7 +34676,7 @@
       </c>
       <c r="AB378" s="505"/>
     </row>
-    <row r="379" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="379" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A379" s="5"/>
       <c r="B379" s="43"/>
       <c r="C379" s="43"/>
@@ -34993,7 +34910,7 @@
       </c>
       <c r="AB383" s="513"/>
     </row>
-    <row r="384" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="384" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A384" s="200"/>
       <c r="B384" s="201"/>
       <c r="C384" s="201"/>
@@ -35229,7 +35146,7 @@
       </c>
       <c r="AB388" s="509"/>
     </row>
-    <row r="389" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="389" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A389" s="193"/>
       <c r="B389" s="194"/>
       <c r="C389" s="194"/>
@@ -35645,7 +35562,7 @@
       </c>
       <c r="AB397" s="505"/>
     </row>
-    <row r="398" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="398" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A398" s="193"/>
       <c r="B398" s="194"/>
       <c r="C398" s="194"/>
@@ -36495,7 +36412,7 @@
       </c>
       <c r="AB415" s="508"/>
     </row>
-    <row r="416" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="416" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A416" s="193"/>
       <c r="B416" s="194"/>
       <c r="C416" s="194"/>
@@ -37627,7 +37544,7 @@
       </c>
       <c r="AB439" s="508"/>
     </row>
-    <row r="440" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="440" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A440" s="193"/>
       <c r="B440" s="194"/>
       <c r="C440" s="194"/>
@@ -38551,7 +38468,7 @@
       </c>
       <c r="AB459" s="505"/>
     </row>
-    <row r="460" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="460" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A460" s="193"/>
       <c r="B460" s="194"/>
       <c r="C460" s="194"/>
@@ -39302,10 +39219,10 @@
         <v>349</v>
       </c>
       <c r="AB475" s="522" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="476" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="476" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A476" s="193"/>
       <c r="B476" s="194"/>
       <c r="C476" s="194"/>
@@ -39957,7 +39874,7 @@
       </c>
       <c r="AB489" s="522"/>
     </row>
-    <row r="490" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="490" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A490" s="193"/>
       <c r="B490" s="194"/>
       <c r="C490" s="194"/>
@@ -43389,7 +43306,7 @@
       </c>
       <c r="AB562" s="537"/>
     </row>
-    <row r="563" spans="1:28" ht="12" thickBot="1">
+    <row r="563" spans="1:28" ht="12.75" thickBot="1">
       <c r="A563" s="202"/>
       <c r="B563" s="203"/>
       <c r="C563" s="203"/>
@@ -43436,7 +43353,7 @@
         <v>786</v>
       </c>
       <c r="AB563" s="539" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="564" spans="1:28">
@@ -43767,7 +43684,7 @@
       </c>
       <c r="AB570" s="188"/>
     </row>
-    <row r="571" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="571" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A571" s="193"/>
       <c r="B571" s="194"/>
       <c r="C571" s="194"/>
@@ -44189,7 +44106,7 @@
       </c>
       <c r="AB579" s="541"/>
     </row>
-    <row r="580" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="580" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A580" s="202"/>
       <c r="B580" s="203"/>
       <c r="C580" s="203"/>
@@ -44611,7 +44528,7 @@
       </c>
       <c r="AB588" s="188"/>
     </row>
-    <row r="589" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="589" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A589" s="202"/>
       <c r="B589" s="203"/>
       <c r="C589" s="203"/>
@@ -45215,7 +45132,7 @@
       </c>
       <c r="AB601" s="505"/>
     </row>
-    <row r="602" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="602" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A602" s="5"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -45537,7 +45454,7 @@
       </c>
       <c r="AB608" s="505"/>
     </row>
-    <row r="609" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="609" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A609" s="5"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -46519,7 +46436,7 @@
       </c>
       <c r="AB629" s="188"/>
     </row>
-    <row r="630" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="630" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A630" s="202"/>
       <c r="B630" s="203"/>
       <c r="C630" s="203"/>
@@ -46567,7 +46484,7 @@
       </c>
       <c r="AB630" s="502"/>
     </row>
-    <row r="631" spans="1:28" ht="12" thickBot="1">
+    <row r="631" spans="1:28" ht="12.75" thickBot="1">
       <c r="A631" s="5"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -47361,7 +47278,7 @@
       </c>
       <c r="AB647" s="188"/>
     </row>
-    <row r="648" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="648" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A648" s="202"/>
       <c r="B648" s="203"/>
       <c r="C648" s="203"/>
@@ -47921,7 +47838,7 @@
       </c>
       <c r="AB659" s="188"/>
     </row>
-    <row r="660" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="660" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A660" s="202"/>
       <c r="B660" s="203"/>
       <c r="C660" s="203"/>
@@ -48533,7 +48450,7 @@
       </c>
       <c r="AB672" s="188"/>
     </row>
-    <row r="673" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="673" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A673" s="202"/>
       <c r="B673" s="203"/>
       <c r="C673" s="203"/>
@@ -48673,7 +48590,7 @@
       </c>
       <c r="AB675" s="188"/>
     </row>
-    <row r="676" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="676" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A676" s="5"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -48811,7 +48728,7 @@
       </c>
       <c r="AB678" s="188"/>
     </row>
-    <row r="679" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="679" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A679" s="5"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -50234,7 +50151,7 @@
         <v>349</v>
       </c>
       <c r="AB708" s="188" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="709" spans="1:28" outlineLevel="1">
@@ -50425,7 +50342,7 @@
       </c>
       <c r="AB712" s="505"/>
     </row>
-    <row r="713" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="713" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A713" s="5"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -50747,7 +50664,7 @@
       </c>
       <c r="AB719" s="505"/>
     </row>
-    <row r="720" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="720" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A720" s="5"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -50979,7 +50896,7 @@
       </c>
       <c r="AB724" s="505"/>
     </row>
-    <row r="725" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="725" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A725" s="5"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -51351,7 +51268,7 @@
       </c>
       <c r="AB732" s="545"/>
     </row>
-    <row r="733" spans="1:28" ht="12" thickBot="1">
+    <row r="733" spans="1:28" ht="12.75" thickBot="1">
       <c r="A733" s="5"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -51635,7 +51552,7 @@
       </c>
       <c r="AB738" s="509"/>
     </row>
-    <row r="739" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="739" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A739" s="5"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -51869,7 +51786,7 @@
       </c>
       <c r="AB743" s="505"/>
     </row>
-    <row r="744" spans="1:28" s="331" customFormat="1" ht="12" outlineLevel="1" thickBot="1">
+    <row r="744" spans="1:28" s="331" customFormat="1" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A744" s="5"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -52103,7 +52020,7 @@
       </c>
       <c r="AB748" s="505"/>
     </row>
-    <row r="749" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="749" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A749" s="5"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -52343,7 +52260,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="754" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="754" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A754" s="190"/>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -52531,7 +52448,7 @@
       </c>
       <c r="AB757" s="505"/>
     </row>
-    <row r="758" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="758" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A758" s="191"/>
       <c r="B758" s="68"/>
       <c r="C758" s="68"/>
@@ -52715,7 +52632,7 @@
       </c>
       <c r="AB761" s="512"/>
     </row>
-    <row r="762" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="762" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A762" s="191"/>
       <c r="B762" s="68"/>
       <c r="C762" s="68"/>
@@ -52945,7 +52862,7 @@
       </c>
       <c r="AB766" s="505"/>
     </row>
-    <row r="767" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="767" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A767" s="191"/>
       <c r="B767" s="68"/>
       <c r="C767" s="68"/>
@@ -53175,7 +53092,7 @@
       </c>
       <c r="AB771" s="505"/>
     </row>
-    <row r="772" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="772" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A772" s="191"/>
       <c r="B772" s="68"/>
       <c r="C772" s="68"/>
@@ -53543,7 +53460,7 @@
       </c>
       <c r="AB779" s="505"/>
     </row>
-    <row r="780" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="780" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A780" s="191"/>
       <c r="B780" s="68"/>
       <c r="C780" s="68"/>
@@ -53911,7 +53828,7 @@
       </c>
       <c r="AB787" s="505"/>
     </row>
-    <row r="788" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="788" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A788" s="191"/>
       <c r="B788" s="68"/>
       <c r="C788" s="68"/>
@@ -54279,7 +54196,7 @@
       </c>
       <c r="AB795" s="505"/>
     </row>
-    <row r="796" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="796" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A796" s="191"/>
       <c r="B796" s="68"/>
       <c r="C796" s="68"/>
@@ -54647,7 +54564,7 @@
       </c>
       <c r="AB803" s="505"/>
     </row>
-    <row r="804" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="804" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A804" s="191"/>
       <c r="B804" s="68"/>
       <c r="C804" s="68"/>
@@ -56359,7 +56276,7 @@
       </c>
       <c r="AB840" s="505"/>
     </row>
-    <row r="841" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="841" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A841" s="204"/>
       <c r="B841" s="43"/>
       <c r="C841" s="43"/>
@@ -56681,7 +56598,7 @@
       </c>
       <c r="AB847" s="505"/>
     </row>
-    <row r="848" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="848" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A848" s="204"/>
       <c r="B848" s="43"/>
       <c r="C848" s="43"/>
@@ -57049,7 +56966,7 @@
       </c>
       <c r="AB855" s="505"/>
     </row>
-    <row r="856" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="856" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A856" s="191"/>
       <c r="B856" s="68"/>
       <c r="C856" s="68"/>
@@ -57511,7 +57428,7 @@
       </c>
       <c r="AB865" s="510"/>
     </row>
-    <row r="866" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="866" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A866" s="191"/>
       <c r="B866" s="68"/>
       <c r="C866" s="68"/>
@@ -57971,7 +57888,7 @@
       </c>
       <c r="AB875" s="505"/>
     </row>
-    <row r="876" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="876" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A876" s="191"/>
       <c r="B876" s="68"/>
       <c r="C876" s="68"/>
@@ -58431,7 +58348,7 @@
       </c>
       <c r="AB885" s="505"/>
     </row>
-    <row r="886" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="886" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A886" s="191"/>
       <c r="B886" s="68"/>
       <c r="C886" s="68"/>
@@ -58477,7 +58394,7 @@
       </c>
       <c r="AB886" s="509"/>
     </row>
-    <row r="887" spans="1:28" ht="12" thickBot="1">
+    <row r="887" spans="1:28" ht="12.75" thickBot="1">
       <c r="A887" s="191"/>
       <c r="B887" s="68"/>
       <c r="C887" s="68"/>
@@ -58525,7 +58442,7 @@
       </c>
       <c r="AB887" s="519"/>
     </row>
-    <row r="888" spans="1:28" ht="12" thickBot="1">
+    <row r="888" spans="1:28" ht="12.75" thickBot="1">
       <c r="A888" s="191"/>
       <c r="B888" s="68"/>
       <c r="C888" s="68"/>
@@ -58803,7 +58720,7 @@
       </c>
       <c r="AB893" s="505"/>
     </row>
-    <row r="894" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="894" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A894" s="191"/>
       <c r="B894" s="68"/>
       <c r="C894" s="68"/>
@@ -59223,7 +59140,7 @@
       </c>
       <c r="AB902" s="508"/>
     </row>
-    <row r="903" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="903" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A903" s="191"/>
       <c r="B903" s="68"/>
       <c r="C903" s="68"/>
@@ -60053,7 +59970,7 @@
       </c>
       <c r="AB920" s="518"/>
     </row>
-    <row r="921" spans="1:28" ht="22.8">
+    <row r="921" spans="1:28">
       <c r="A921" s="191"/>
       <c r="B921" s="68"/>
       <c r="C921" s="68"/>
@@ -60099,7 +60016,7 @@
       </c>
       <c r="AB921" s="516"/>
     </row>
-    <row r="922" spans="1:28" ht="22.8" outlineLevel="1">
+    <row r="922" spans="1:28" outlineLevel="1">
       <c r="A922" s="191"/>
       <c r="B922" s="68"/>
       <c r="C922" s="68"/>
@@ -60145,7 +60062,7 @@
       </c>
       <c r="AB922" s="508"/>
     </row>
-    <row r="923" spans="1:28" ht="22.8" outlineLevel="1">
+    <row r="923" spans="1:28" outlineLevel="1">
       <c r="A923" s="191"/>
       <c r="B923" s="68"/>
       <c r="C923" s="68"/>
@@ -60191,7 +60108,7 @@
       </c>
       <c r="AB923" s="505"/>
     </row>
-    <row r="924" spans="1:28" ht="23.4" outlineLevel="1" thickBot="1">
+    <row r="924" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A924" s="191"/>
       <c r="B924" s="68"/>
       <c r="C924" s="68"/>
@@ -60423,7 +60340,7 @@
       </c>
       <c r="AB928" s="501"/>
     </row>
-    <row r="929" spans="1:28" ht="12" outlineLevel="1" thickBot="1">
+    <row r="929" spans="1:28" ht="12.75" outlineLevel="1" thickBot="1">
       <c r="A929" s="190"/>
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
@@ -60888,12 +60805,12 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="381"/>
+    <col min="1" max="16384" width="8.75" style="381"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.8">
+    <row r="2" spans="2:2" ht="21">
       <c r="B2" s="497" t="s">
         <v>896</v>
       </c>
